--- a/data/case1/5/V1_11.xlsx
+++ b/data/case1/5/V1_11.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999727049116</v>
+        <v>0.99999999438518516</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99705582868875342</v>
+        <v>0.99709017844233783</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.98941981263140333</v>
+        <v>0.9895527881575763</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.9896424500501293</v>
+        <v>0.98984830389634781</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.98011498281522091</v>
+        <v>0.98039632986798819</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.95712216121544724</v>
+        <v>0.9575811705487014</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.95208938436305712</v>
+        <v>0.95261143209800347</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.94576740739331022</v>
+        <v>0.94642387762550151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.93862505658875328</v>
+        <v>0.93949388314879378</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.93240196070825498</v>
+        <v>0.93348392126411617</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.93156405276828713</v>
+        <v>0.93268248310159363</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.93022570382451386</v>
+        <v>0.93141341970622071</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.92549164761216418</v>
+        <v>0.92698104950410376</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.92412098541699528</v>
+        <v>0.9257344390380231</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.92422782778225709</v>
+        <v>0.92596498182823184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.92496139466938987</v>
+        <v>0.92684935662824697</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.92125351100971964</v>
+        <v>0.92314155078905069</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.92014458062561233</v>
+        <v>0.92203263839515071</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99413999367252548</v>
+        <v>0.99420970493439964</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.97048242545984775</v>
+        <v>0.97086382694604667</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.96409962141712469</v>
+        <v>0.96457532149167524</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.96283509803316214</v>
+        <v>0.96331080314314654</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.98238528712118622</v>
+        <v>0.98251832884524182</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.96936469964198069</v>
+        <v>0.96949779795199276</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.96290774245951116</v>
+        <v>0.96304085794251781</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.95507313798167104</v>
+        <v>0.95553072176953058</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.9524664149682045</v>
+        <v>0.95292193479129761</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.94144347979899745</v>
+        <v>0.94189552148916322</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.93393904648715953</v>
+        <v>0.93438831134622835</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.93122192638083401</v>
+        <v>0.93166737409809453</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.93347211475126113</v>
+        <v>0.93391530115165211</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.93524340135920525</v>
+        <v>0.93568645443940712</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.93472337810702055</v>
+        <v>0.93516644213797351</v>
       </c>
     </row>
   </sheetData>
